--- a/reef monitoring/data/npa_ltm.xlsx
+++ b/reef monitoring/data/npa_ltm.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gizmo/Github/npa/reef monitoring/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3C98F9-B766-1747-9948-14BB8604E3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BA8C3E-EAAF-5E47-89D8-10FF158FBA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="460" windowWidth="17860" windowHeight="16040" xr2:uid="{94001EFB-2903-7B43-8B82-BDDB464EFE6D}"/>
+    <workbookView xWindow="7720" yWindow="460" windowWidth="17860" windowHeight="16040" activeTab="1" xr2:uid="{94001EFB-2903-7B43-8B82-BDDB464EFE6D}"/>
   </bookViews>
   <sheets>
     <sheet name="fish" sheetId="1" r:id="rId1"/>
-    <sheet name="benthic_algae" sheetId="2" r:id="rId2"/>
-    <sheet name="benthic_inverts" sheetId="3" r:id="rId3"/>
+    <sheet name="benthic" sheetId="2" r:id="rId2"/>
+    <sheet name="inverts" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
   <si>
     <t>Surveyor</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Turf algal height</t>
   </si>
   <si>
-    <t>Macroalgae height</t>
-  </si>
-  <si>
     <t>MWW</t>
   </si>
   <si>
@@ -189,6 +186,12 @@
   </si>
   <si>
     <t>Snapper</t>
+  </si>
+  <si>
+    <t>Conch</t>
+  </si>
+  <si>
+    <t>Macroalgal height</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E07F57-2AAC-D84A-ABDD-038A618CED61}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -637,10 +640,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>44842</v>
@@ -655,19 +658,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>28</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="M2">
         <v>5</v>
@@ -675,10 +678,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>44842</v>
@@ -693,19 +696,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -713,10 +716,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>44842</v>
@@ -731,19 +734,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -751,10 +754,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>44842</v>
@@ -769,19 +772,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -792,10 +795,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>44842</v>
@@ -810,19 +813,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="M6">
         <v>7</v>
@@ -830,10 +833,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>44842</v>
@@ -848,19 +851,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -868,10 +871,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>44477</v>
@@ -886,19 +889,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>28</v>
       </c>
       <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
         <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" t="s">
-        <v>23</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -906,10 +909,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>44477</v>
@@ -924,19 +927,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -944,10 +947,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>44477</v>
@@ -962,19 +965,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>28</v>
       </c>
       <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
         <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -982,10 +985,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>44477</v>
@@ -1000,19 +1003,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -1028,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3343D824-2265-BC42-99AD-C0B9372F937A}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1075,7 @@
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>17</v>
@@ -1080,10 +1083,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>44842</v>
@@ -1098,13 +1101,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1140,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D6BD88-263F-1D48-A268-1DAE3FDA2569}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1170,10 +1173,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <v>44842</v>
@@ -1182,10 +1185,110 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44842</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44842</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/reef monitoring/data/npa_ltm.xlsx
+++ b/reef monitoring/data/npa_ltm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gizmo/Github/npa/reef monitoring/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BA8C3E-EAAF-5E47-89D8-10FF158FBA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6014CD59-A1EF-CE45-8532-305A85951CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="460" windowWidth="17860" windowHeight="16040" activeTab="1" xr2:uid="{94001EFB-2903-7B43-8B82-BDDB464EFE6D}"/>
+    <workbookView xWindow="880" yWindow="680" windowWidth="17860" windowHeight="16040" activeTab="2" xr2:uid="{94001EFB-2903-7B43-8B82-BDDB464EFE6D}"/>
   </bookViews>
   <sheets>
     <sheet name="fish" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
   <si>
     <t>Surveyor</t>
   </si>
@@ -137,16 +137,13 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Invertebrate type</t>
-  </si>
-  <si>
     <t>Side</t>
   </si>
   <si>
     <t>Meter</t>
   </si>
   <si>
-    <t>Turf algal height</t>
+    <t>Macroalgae height</t>
   </si>
   <si>
     <t>MWW</t>
@@ -191,7 +188,7 @@
     <t>Conch</t>
   </si>
   <si>
-    <t>Macroalgal height</t>
+    <t>Turf height</t>
   </si>
 </sst>
 </file>
@@ -640,10 +637,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>44842</v>
@@ -658,19 +655,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>28</v>
       </c>
       <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="M2">
         <v>5</v>
@@ -678,10 +675,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
         <v>44842</v>
@@ -696,19 +693,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -716,10 +713,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>44842</v>
@@ -734,19 +731,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -754,10 +751,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>44842</v>
@@ -772,19 +769,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -795,10 +792,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>44842</v>
@@ -813,19 +810,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="M6">
         <v>7</v>
@@ -833,10 +830,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>44842</v>
@@ -851,19 +848,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -871,10 +868,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>44477</v>
@@ -889,19 +886,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>28</v>
       </c>
       <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
         <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -909,10 +906,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>44477</v>
@@ -927,19 +924,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -947,10 +944,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>44477</v>
@@ -965,19 +962,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>28</v>
       </c>
       <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
         <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -985,10 +982,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>44477</v>
@@ -1003,19 +1000,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -1029,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3343D824-2265-BC42-99AD-C0B9372F937A}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,24 +1066,24 @@
         <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>44842</v>
@@ -1101,13 +1098,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1123,6 +1120,33 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44842</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>10.1</v>
+      </c>
+      <c r="F3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
       <c r="K3">
         <v>1</v>
       </c>
@@ -1134,6 +1158,88 @@
       </c>
       <c r="N3">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44842</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>10.1</v>
+      </c>
+      <c r="F4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44842</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>10.1</v>
+      </c>
+      <c r="F5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1145,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D6BD88-263F-1D48-A268-1DAE3FDA2569}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -1173,10 +1279,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>44842</v>
@@ -1185,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1193,10 +1299,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
         <v>44842</v>
@@ -1205,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1213,10 +1319,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <v>44842</v>
@@ -1225,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1233,10 +1339,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>44477</v>
@@ -1245,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1253,10 +1359,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>44477</v>
@@ -1265,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1273,10 +1379,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>44477</v>
@@ -1285,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>3</v>

--- a/reef monitoring/data/npa_ltm.xlsx
+++ b/reef monitoring/data/npa_ltm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gizmo/Github/npa/reef monitoring/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6014CD59-A1EF-CE45-8532-305A85951CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBBB0EA-4309-7545-A06A-525C5A8BA095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="680" windowWidth="17860" windowHeight="16040" activeTab="2" xr2:uid="{94001EFB-2903-7B43-8B82-BDDB464EFE6D}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>Turf height</t>
+  </si>
+  <si>
+    <t>Size over 70cm</t>
   </si>
 </sst>
 </file>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E07F57-2AAC-D84A-ABDD-038A618CED61}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,10 +620,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -632,15 +632,15 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>44842</v>
@@ -655,19 +655,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="H2">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="M2">
         <v>5</v>
@@ -675,10 +675,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>44842</v>
@@ -693,19 +693,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="H3">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -713,10 +713,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>44842</v>
@@ -731,19 +731,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>44842</v>
@@ -769,33 +769,33 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="H5">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>44842</v>
@@ -810,19 +810,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="H6">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="M6">
         <v>7</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>44842</v>
@@ -848,19 +848,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="H7">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>44477</v>
@@ -886,19 +886,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="H8">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
         <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>44477</v>
@@ -924,19 +924,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="H9">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
       <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="M9">
         <v>2</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>44477</v>
@@ -962,19 +962,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="H10">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
         <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
         <v>44477</v>
@@ -1000,19 +1000,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
         <v>19</v>
       </c>
-      <c r="H11">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11">
         <v>2</v>
@@ -1028,7 +1028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3343D824-2265-BC42-99AD-C0B9372F937A}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -1063,27 +1063,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>44842</v>
@@ -1098,13 +1098,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
-      </c>
-      <c r="H2">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1121,10 +1121,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>44842</v>
@@ -1139,13 +1139,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
-      </c>
-      <c r="H3">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1162,10 +1162,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>44842</v>
@@ -1180,13 +1180,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
-      </c>
-      <c r="H4">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1203,10 +1203,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>44842</v>
@@ -1221,13 +1221,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
         <v>19</v>
-      </c>
-      <c r="H5">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1271,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>44842</v>
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>44842</v>
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1319,10 +1319,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>44842</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1339,10 +1339,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>44477</v>
@@ -1351,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1359,10 +1359,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>44477</v>
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1379,10 +1379,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>44477</v>
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>3</v>

--- a/reef monitoring/data/npa_ltm.xlsx
+++ b/reef monitoring/data/npa_ltm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gizmo/Github/npa/reef monitoring/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBBB0EA-4309-7545-A06A-525C5A8BA095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEDD244-ED9B-9548-A6C9-496E1BB05E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="680" windowWidth="17860" windowHeight="16040" activeTab="2" xr2:uid="{94001EFB-2903-7B43-8B82-BDDB464EFE6D}"/>
+    <workbookView xWindow="880" yWindow="680" windowWidth="17860" windowHeight="16040" activeTab="1" xr2:uid="{94001EFB-2903-7B43-8B82-BDDB464EFE6D}"/>
   </bookViews>
   <sheets>
     <sheet name="fish" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="35">
   <si>
     <t>Surveyor</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>Size over 70cm</t>
+  </si>
+  <si>
+    <t>Diadema</t>
+  </si>
+  <si>
+    <t>Mermaids</t>
+  </si>
+  <si>
+    <t>Pillars</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3343D824-2265-BC42-99AD-C0B9372F937A}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,6 +1251,170 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>10.1</v>
+      </c>
+      <c r="F6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>10.1</v>
+      </c>
+      <c r="F7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>10.1</v>
+      </c>
+      <c r="F8">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>10.1</v>
+      </c>
+      <c r="F9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1249,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D6BD88-263F-1D48-A268-1DAE3FDA2569}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1282,7 +1455,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>44842</v>
@@ -1302,7 +1475,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
         <v>44842</v>
@@ -1322,13 +1495,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2">
         <v>44842</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -1342,7 +1515,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2">
         <v>44477</v>
@@ -1362,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>44477</v>
@@ -1382,7 +1555,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>44477</v>
@@ -1395,6 +1568,206 @@
       </c>
       <c r="F7">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44842</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44842</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44842</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44477</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/reef monitoring/data/npa_ltm.xlsx
+++ b/reef monitoring/data/npa_ltm.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gizmo/Github/npa/reef monitoring/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEDD244-ED9B-9548-A6C9-496E1BB05E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26E173A-950B-AC4C-959B-B6A10079BDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="680" windowWidth="17860" windowHeight="16040" activeTab="1" xr2:uid="{94001EFB-2903-7B43-8B82-BDDB464EFE6D}"/>
+    <workbookView xWindow="880" yWindow="680" windowWidth="17860" windowHeight="16040" xr2:uid="{94001EFB-2903-7B43-8B82-BDDB464EFE6D}"/>
   </bookViews>
   <sheets>
-    <sheet name="fish" sheetId="1" r:id="rId1"/>
+    <sheet name="fish" sheetId="4" r:id="rId1"/>
     <sheet name="benthic" sheetId="2" r:id="rId2"/>
     <sheet name="inverts" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -39,44 +39,6 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={85847C1C-4162-8049-A191-773B9C19F5F7}</author>
-    <author>tc={B975E55C-B1BE-6144-B08B-1DF3C3EC405E}</author>
-    <author>tc={71AB377D-8BD4-9D4E-9E04-3F7F1ED43CEC}</author>
-  </authors>
-  <commentList>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{85847C1C-4162-8049-A191-773B9C19F5F7}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    You would only have to enter the group for things that were observed, anything that is not mentioned I will convert to “0 observations” in R</t>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{B975E55C-B1BE-6144-B08B-1DF3C3EC405E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This would be NA for turtles, rays, etc
-Reply:
-    You can set data validations for these in excel to match the existing categories and size bins</t>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="2" shapeId="0" xr:uid="{71AB377D-8BD4-9D4E-9E04-3F7F1ED43CEC}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This would be only if fish is over 60cm, NA for others</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>tc={E6727660-9A02-634D-978B-7409BC10A337}</author>
   </authors>
   <commentList>
@@ -93,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="48">
   <si>
     <t>Surveyor</t>
   </si>
@@ -122,9 +84,6 @@
     <t>Temp unit</t>
   </si>
   <si>
-    <t>Size bin</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -158,9 +117,6 @@
     <t>0-5</t>
   </si>
   <si>
-    <t>Turtle</t>
-  </si>
-  <si>
     <t>6-10</t>
   </si>
   <si>
@@ -170,27 +126,12 @@
     <t>Doctorfish</t>
   </si>
   <si>
-    <t>11-15</t>
-  </si>
-  <si>
-    <t>&gt;70</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Snapper</t>
-  </si>
-  <si>
     <t>Conch</t>
   </si>
   <si>
     <t>Turf height</t>
   </si>
   <si>
-    <t>Size over 70cm</t>
-  </si>
-  <si>
     <t>Diadema</t>
   </si>
   <si>
@@ -198,13 +139,73 @@
   </si>
   <si>
     <t>Pillars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>Depth Start</t>
+  </si>
+  <si>
+    <t>Depth End</t>
+  </si>
+  <si>
+    <t>Depth Unit</t>
+  </si>
+  <si>
+    <t>Size Bin</t>
+  </si>
+  <si>
+    <t>Size over 60cm</t>
+  </si>
+  <si>
+    <t>Ft</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Parrotfish</t>
+  </si>
+  <si>
+    <t>11-20</t>
+  </si>
+  <si>
+    <t>Damselfish</t>
+  </si>
+  <si>
+    <t>Trigger/Box/File</t>
+  </si>
+  <si>
+    <t>21-40</t>
+  </si>
+  <si>
+    <t>Grunt/Porgy/Margate</t>
+  </si>
+  <si>
+    <t>Coney</t>
+  </si>
+  <si>
+    <t>Nassau Grouper</t>
+  </si>
+  <si>
+    <t>Hind</t>
+  </si>
+  <si>
+    <t>Snappers</t>
+  </si>
+  <si>
+    <t>Sharks</t>
+  </si>
+  <si>
+    <t>&gt;60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,6 +216,21 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -238,18 +254,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9BA34767-C153-544B-862D-6B7333EC76D5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,23 +588,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K1" dT="2022-08-10T18:40:35.53" personId="{84D98B31-DA78-264A-8261-4909D7AC72DD}" id="{85847C1C-4162-8049-A191-773B9C19F5F7}">
-    <text>You would only have to enter the group for things that were observed, anything that is not mentioned I will convert to “0 observations” in R</text>
-  </threadedComment>
-  <threadedComment ref="L1" dT="2022-08-10T18:40:00.43" personId="{84D98B31-DA78-264A-8261-4909D7AC72DD}" id="{B975E55C-B1BE-6144-B08B-1DF3C3EC405E}">
-    <text>This would be NA for turtles, rays, etc</text>
-  </threadedComment>
-  <threadedComment ref="L1" dT="2022-08-10T18:41:16.02" personId="{84D98B31-DA78-264A-8261-4909D7AC72DD}" id="{EB10E57F-A92F-2D4D-BA90-04540048259A}" parentId="{B975E55C-B1BE-6144-B08B-1DF3C3EC405E}">
-    <text>You can set data validations for these in excel to match the existing categories and size bins</text>
-  </threadedComment>
-  <threadedComment ref="N1" dT="2022-08-10T18:39:46.94" personId="{84D98B31-DA78-264A-8261-4909D7AC72DD}" id="{71AB377D-8BD4-9D4E-9E04-3F7F1ED43CEC}">
-    <text>This would be only if fish is over 60cm, NA for others</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="E1" dT="2022-08-10T18:57:27.30" personId="{84D98B31-DA78-264A-8261-4909D7AC72DD}" id="{E6727660-9A02-634D-978B-7409BC10A337}">
     <text>Can set validations</text>
   </threadedComment>
@@ -591,445 +595,2208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E07F57-2AAC-D84A-ABDD-038A618CED61}">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CCDE55-A878-614C-B740-4CEF13184420}">
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5">
+        <v>82</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="5">
+        <v>82</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="5">
+        <v>82</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="5">
+        <v>82</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5">
+        <v>82</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5">
+        <v>82</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5">
+        <v>82</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5">
+        <v>82</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5">
+        <v>82</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5">
+        <v>82</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="5">
+        <v>82</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="5">
+        <v>82</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5">
+        <v>29</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="5">
+        <v>82</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5">
+        <v>29</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="5">
+        <v>82</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5">
+        <v>29</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="5">
+        <v>82</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5">
+        <v>20</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="5">
+        <v>82</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="5">
+        <v>82</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5">
+        <v>20</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="5">
+        <v>82</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5">
+        <v>20</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="5">
+        <v>82</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5">
+        <v>20</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="5">
+        <v>82</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>22</v>
+      </c>
+      <c r="E22" s="5">
+        <v>22</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="5">
+        <v>82</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44842</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>10.1</v>
-      </c>
-      <c r="F2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>22</v>
+      </c>
+      <c r="E23" s="5">
+        <v>22</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="5">
+        <v>82</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>22</v>
+      </c>
+      <c r="E24" s="5">
+        <v>22</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="5">
+        <v>82</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>18</v>
+      </c>
+      <c r="E25" s="5">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="F25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="5">
+        <v>82</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5">
+        <v>18</v>
+      </c>
+      <c r="E26" s="5">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="5">
+        <v>82</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5">
+        <v>18</v>
+      </c>
+      <c r="E27" s="5">
+        <v>19</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="5">
+        <v>82</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5">
+        <v>4</v>
+      </c>
+      <c r="D28" s="5">
+        <v>27</v>
+      </c>
+      <c r="E28" s="5">
+        <v>29</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="5">
+        <v>82</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4</v>
+      </c>
+      <c r="D29" s="5">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5">
+        <v>29</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="5">
+        <v>82</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="5">
+        <v>4</v>
+      </c>
+      <c r="D30" s="5">
+        <v>27</v>
+      </c>
+      <c r="E30" s="5">
+        <v>29</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="5">
+        <v>82</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="5">
+        <v>4</v>
+      </c>
+      <c r="D31" s="5">
+        <v>27</v>
+      </c>
+      <c r="E31" s="5">
+        <v>29</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="5">
+        <v>82</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>18</v>
+      </c>
+      <c r="E32" s="5">
         <v>20</v>
       </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44842</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>10.1</v>
-      </c>
-      <c r="F3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="F32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="5">
+        <v>82</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>18</v>
+      </c>
+      <c r="E33" s="5">
+        <v>20</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="5">
+        <v>82</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>18</v>
+      </c>
+      <c r="E34" s="5">
+        <v>20</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="5">
+        <v>82</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="L34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>18</v>
+      </c>
+      <c r="E35" s="5">
+        <v>20</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="5">
+        <v>82</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>18</v>
+      </c>
+      <c r="E36" s="5">
+        <v>20</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="5">
+        <v>82</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="5">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5">
         <v>22</v>
       </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44842</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>10.1</v>
-      </c>
-      <c r="F4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="E37" s="5">
+        <v>22</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="5">
+        <v>82</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5">
+        <v>22</v>
+      </c>
+      <c r="E38" s="5">
+        <v>22</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="5">
+        <v>82</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>22</v>
+      </c>
+      <c r="E39" s="5">
+        <v>22</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="5">
+        <v>82</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="5">
+        <v>3</v>
+      </c>
+      <c r="D40" s="5">
+        <v>18</v>
+      </c>
+      <c r="E40" s="5">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44842</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>10.1</v>
-      </c>
-      <c r="F5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="F40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="5">
+        <v>82</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="5">
+        <v>3</v>
+      </c>
+      <c r="D41" s="5">
+        <v>18</v>
+      </c>
+      <c r="E41" s="5">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44842</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>10.1</v>
-      </c>
-      <c r="F6">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="F41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="5">
+        <v>82</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="5">
+        <v>3</v>
+      </c>
+      <c r="D42" s="5">
+        <v>18</v>
+      </c>
+      <c r="E42" s="5">
         <v>19</v>
       </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="F42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="5">
+        <v>82</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="5">
+        <v>4</v>
+      </c>
+      <c r="D43" s="5">
+        <v>27</v>
+      </c>
+      <c r="E43" s="5">
+        <v>29</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="5">
+        <v>82</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="5">
+        <v>4</v>
+      </c>
+      <c r="D44" s="5">
+        <v>27</v>
+      </c>
+      <c r="E44" s="5">
+        <v>29</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="5">
+        <v>82</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="5">
+        <v>4</v>
+      </c>
+      <c r="D45" s="5">
+        <v>27</v>
+      </c>
+      <c r="E45" s="5">
+        <v>29</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="5">
+        <v>82</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>44835</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="5">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5">
+        <v>27</v>
+      </c>
+      <c r="E46" s="5">
+        <v>29</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="5">
+        <v>82</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5">
+        <v>18</v>
+      </c>
+      <c r="E47" s="5">
         <v>20</v>
       </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44842</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>10.1</v>
-      </c>
-      <c r="F7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="F47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="5">
+        <v>82</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5">
+        <v>18</v>
+      </c>
+      <c r="E48" s="5">
+        <v>20</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="5">
+        <v>82</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L48" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
+        <v>18</v>
+      </c>
+      <c r="E49" s="5">
+        <v>20</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="5">
+        <v>82</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="L49" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50" s="5">
+        <v>18</v>
+      </c>
+      <c r="E50" s="5">
+        <v>20</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="5">
+        <v>82</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5">
+        <v>18</v>
+      </c>
+      <c r="E51" s="5">
+        <v>20</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="5">
+        <v>82</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L51" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2</v>
+      </c>
+      <c r="D52" s="5">
         <v>22</v>
       </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44477</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>10.1</v>
-      </c>
-      <c r="F8">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="E52" s="5">
+        <v>22</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="5">
+        <v>82</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="5">
+        <v>2</v>
+      </c>
+      <c r="D53" s="5">
+        <v>22</v>
+      </c>
+      <c r="E53" s="5">
+        <v>22</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="5">
+        <v>82</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L53" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2</v>
+      </c>
+      <c r="D54" s="5">
+        <v>22</v>
+      </c>
+      <c r="E54" s="5">
+        <v>22</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="5">
+        <v>82</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L54" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="5">
+        <v>3</v>
+      </c>
+      <c r="D55" s="5">
+        <v>18</v>
+      </c>
+      <c r="E55" s="5">
         <v>19</v>
       </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44477</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>10.1</v>
-      </c>
-      <c r="F9">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="F55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="5">
+        <v>82</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3</v>
+      </c>
+      <c r="D56" s="5">
+        <v>18</v>
+      </c>
+      <c r="E56" s="5">
         <v>19</v>
       </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44477</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>10.1</v>
-      </c>
-      <c r="F10">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="F56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="5">
+        <v>82</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="5">
+        <v>3</v>
+      </c>
+      <c r="D57" s="5">
+        <v>18</v>
+      </c>
+      <c r="E57" s="5">
         <v>19</v>
       </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44477</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>10.1</v>
-      </c>
-      <c r="F11">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
+      <c r="F57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="5">
+        <v>82</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="5">
+        <v>4</v>
+      </c>
+      <c r="D58" s="5">
+        <v>27</v>
+      </c>
+      <c r="E58" s="5">
+        <v>29</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="5">
+        <v>82</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="5">
+        <v>4</v>
+      </c>
+      <c r="D59" s="5">
+        <v>27</v>
+      </c>
+      <c r="E59" s="5">
+        <v>29</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="5">
+        <v>82</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="5">
+        <v>4</v>
+      </c>
+      <c r="D60" s="5">
+        <v>27</v>
+      </c>
+      <c r="E60" s="5">
+        <v>29</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="5">
+        <v>82</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L60" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="5">
+        <v>4</v>
+      </c>
+      <c r="D61" s="5">
+        <v>27</v>
+      </c>
+      <c r="E61" s="5">
+        <v>29</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="5">
+        <v>82</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L61" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="5">
+        <v>4</v>
+      </c>
+      <c r="D62" s="5">
+        <v>27</v>
+      </c>
+      <c r="E62" s="5">
+        <v>29</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="5">
+        <v>82</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L62" s="5">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J62" xr:uid="{AB0302CC-EDA8-BB46-BC48-F57494E46FD5}">
+      <formula1>"Doctorfish, Parrotfish, Par (Rain/Blue/Mid), Damselfish, Trigger/Box/File, Snappers, Grunt/Porgy/Margate, Coney, Hind, Nassau Grouper, Barracuda, Mackeral, Jacks, Lionfish, Sharks, Turtle, Ray, Eel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K62" xr:uid="{70CBAAF8-9BB9-B542-8D02-9EE604945B68}">
+      <formula1>"0-5, 6-10, 11-20, 21-40, 41-60, &gt;60, NA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J63:J70" xr:uid="{9C723276-46BE-8D4F-B5C6-20BA61759E35}">
+      <formula1>"Doctorfish, Parrotfish, Par (Rain, Blue, Mid), Damselfish, Trigger/Box/File, Snappers, Grunt/Porgy/Margate, Coney, Hind, Nassau Grouper, Barracuda, Mackeral, Jacks, Lionfish, Sharks, Turtle, Ray, Eel"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1037,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3343D824-2265-BC42-99AD-C0B9372F937A}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -1072,27 +2839,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
       <c r="C2" s="2">
         <v>44842</v>
@@ -1107,13 +2874,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1130,10 +2897,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>44842</v>
@@ -1148,13 +2915,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1171,10 +2938,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>44842</v>
@@ -1189,13 +2956,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1212,10 +2979,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>44842</v>
@@ -1230,13 +2997,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1253,10 +3020,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>44477</v>
@@ -1271,13 +3038,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1294,10 +3061,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>44477</v>
@@ -1312,13 +3079,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1335,10 +3102,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>44477</v>
@@ -1353,13 +3120,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8">
         <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1376,10 +3143,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>44477</v>
@@ -1394,13 +3161,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1425,7 +3192,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1444,18 +3211,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2">
         <v>44842</v>
@@ -1464,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1472,10 +3239,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>44842</v>
@@ -1484,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1492,10 +3259,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>44842</v>
@@ -1504,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -1512,10 +3279,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2">
         <v>44477</v>
@@ -1524,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1532,10 +3299,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2">
         <v>44477</v>
@@ -1544,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1552,10 +3319,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>44477</v>
@@ -1564,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1572,10 +3339,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
         <v>44477</v>
@@ -1584,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1592,10 +3359,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
         <v>44477</v>
@@ -1604,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1612,10 +3379,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>44842</v>
@@ -1624,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1632,10 +3399,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <v>44842</v>
@@ -1644,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1652,10 +3419,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>44842</v>
@@ -1664,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1672,10 +3439,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
         <v>44477</v>
@@ -1684,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1692,10 +3459,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>44477</v>
@@ -1704,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1712,10 +3479,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
         <v>44477</v>
@@ -1724,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -1732,10 +3499,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
         <v>44477</v>
@@ -1744,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1752,10 +3519,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
         <v>44477</v>
@@ -1764,7 +3531,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <v>2</v>
